--- a/Gestione Progetto Organizzazione/WBS - Team 2 - Progetto COVID19.xlsx
+++ b/Gestione Progetto Organizzazione/WBS - Team 2 - Progetto COVID19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Happy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A021F9-4189-4AB4-8202-5F85C3D9C11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68AA77FC-9EEC-4E92-BD23-7ADE6A22E099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD18C4D3-3E33-46A5-B80F-6D9E9EB1E45B}"/>
   </bookViews>
@@ -271,7 +271,7 @@
         <scheme val="minor"/>
       </rPr>
       <t>impaginata in modo tale da semplificare il suo utilizzo e mostrare con relativi grafici i dati relativi alla pandemia da Covid-19, ottenendo così un'applicazione che rappresenti un punto di riferimento per chiunque necessiti di visualizzare i suddetti dati.
-Considerando invece il progetto relativo a Sistemi e Reti il team ha fissato come obiettivo quello di realizzare un infrastruttura informatica che garantisca uno scambio di dati sensibili il più sicuro e all'avanguardia possibile.</t>
+Considerando invece il progetto relativo a Sistemi e Reti il team ha fissato come obiettivo quello di realizzare un infrastruttura informatica tra tre sedi che garantisca uno scambio di dati funzionale,più sicuro e all'avanguardia possibile.</t>
     </r>
   </si>
   <si>
@@ -287,7 +287,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-La realizzazione è il momento in cui tutti i membri del gruppo si ritrovano a lavorare alla parte dei progetti a loro assegnata con gli strumenti messi a disposizione per poi unire tutti i punti e completare i progetti nel tempo concordato.</t>
+La realizzazione è il momento in cui tutti i membri del gruppo si ritrovano a lavorare alla parte dei progetti a loro assegnata con gli strumenti messi a disposizione per poi unire tutti i punti e completare i progetti nel tempo concordato. Verranno realizzati i due Database per Tp ed Informatica ed il file Packet Tracer contentente la struttura della rete realizzata.</t>
     </r>
   </si>
 </sst>
@@ -708,7 +708,7 @@
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
